--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>. &lt; today()</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1532,10 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1673,33 +1679,6 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
@@ -1937,16 +1916,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1956,7 +1955,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1965,7 +1964,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1974,7 +1973,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1983,7 +1982,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1992,7 +1991,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2001,7 +2000,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2010,7 +2009,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2020,7 +2019,7 @@
       <c r="G25" s="2"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2030,7 +2029,7 @@
       <c r="G26" s="2"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2040,7 +2039,7 @@
       <c r="G27" s="2"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2049,7 +2048,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1532,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1936,9 +1933,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4" t="b">
         <v>1</v>
       </c>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -1532,7 +1532,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1733,6 +1733,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Place of Death</t>
   </si>
   <si>
-    <t>Place of Death Other</t>
-  </si>
-  <si>
     <t>Amefia wapi/Kifo kilitokea wapi kwingine taja?</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>selected(${placeOfDeath}, 'OTHER')</t>
   </si>
   <si>
-    <t>Mirth</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -337,6 +331,18 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>Who diagnosed the cause of death?</t>
+  </si>
+  <si>
+    <t>Place of Death (Other)</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>Date of death can not be in the future</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1535,10 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,15 +1546,17 @@
     <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
+    <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="12" max="12" width="25.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1678,7 +1686,7 @@
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
@@ -1698,7 +1706,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -1718,7 +1726,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -1739,9 +1747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>25</v>
@@ -1755,7 +1763,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
@@ -1763,16 +1774,16 @@
     </row>
     <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1783,16 +1794,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1801,21 +1812,21 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1824,21 +1835,21 @@
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1847,12 +1858,12 @@
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>26</v>
@@ -1872,16 +1883,16 @@
     </row>
     <row r="15" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1890,27 +1901,27 @@
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="K16" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="5" t="b">
         <v>1</v>
@@ -1918,16 +1929,16 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2161,7 +2172,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2175,7 +2186,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,13 +2194,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,13 +2208,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2222,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2236,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,251 +2250,251 @@
         <v>26</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="17">
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>99</v>
-      </c>
       <c r="C22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2743,24 +2754,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -343,6 +343,33 @@
   </si>
   <si>
     <t>Date of death can not be in the future</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
 </sst>
 </file>
@@ -422,12 +449,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -792,7 +825,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +877,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,13 +1574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1684,39 +1726,40 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="b">
+    <row r="6" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
@@ -1724,22 +1767,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
@@ -1747,132 +1787,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="M9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="9" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4"/>
+      <c r="M10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4"/>
+      <c r="M11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="12" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1881,18 +1901,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1901,95 +1921,147 @@
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="K16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="5" t="b">
+      <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="b">
+      <c r="L16" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="L17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="K20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
@@ -1999,12 +2071,13 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2013,7 +2086,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2026,7 +2099,6 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -2036,7 +2108,6 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
@@ -2046,7 +2117,6 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
@@ -2067,62 +2137,101 @@
       <c r="G29" s="2"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="3"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I54" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="3"/>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I79" s="3"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
       <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>field-list</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualId},'_DTH_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1576,11 +1582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2853,15 +2859,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2871,8 +2877,11 @@
       <c r="C1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -2881,6 +2890,9 @@
       </c>
       <c r="C2" t="s">
         <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-195" windowWidth="19200" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -327,9 +327,6 @@
     <t>concat(${causeofdeathdiagnosed},${causofdeathnotdiagnosed})</t>
   </si>
   <si>
-    <t>. &lt; today()</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>processed</t>
   </si>
   <si>
-    <t>Date of death can not be in the future</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -376,12 +370,30 @@
   </si>
   <si>
     <t>concat(${individualId},'_DTH_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>earliestDate</t>
+  </si>
+  <si>
+    <t>Earliest date for death</t>
+  </si>
+  <si>
+    <t>. &lt; today() and &gt;${earliestDate}</t>
+  </si>
+  <si>
+    <t>Date of death can not be in the future or before the earliest date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -831,7 +843,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +904,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1604,10 +1625,12 @@
     <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
     <col min="12" max="12" width="25.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="5"/>
+    <col min="14" max="17" width="10.875" style="5"/>
+    <col min="18" max="18" width="10.875" style="24"/>
+    <col min="19" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1659,8 +1682,11 @@
       <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1710,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1734,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1732,25 +1758,44 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="26">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I6" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -1813,16 +1858,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1832,16 +1877,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1851,18 +1896,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="23"/>
       <c r="I12" s="22"/>
       <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1878,16 +1924,16 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -1918,7 +1964,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1930,7 +1976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
@@ -2007,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2044,16 +2090,16 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2861,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +2924,7 @@
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2892,7 +2938,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -381,10 +381,10 @@
     <t>Earliest date for death</t>
   </si>
   <si>
-    <t>. &lt; today() and &gt;${earliestDate}</t>
-  </si>
-  <si>
     <t>Date of death can not be in the future or before the earliest date</t>
+  </si>
+  <si>
+    <t>. &lt; today() and . &gt;${earliestDate}</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1607,7 +1607,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1924,10 +1924,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>. &lt; today() and . &gt;${earliestDate}</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1604,10 +1607,10 @@
   <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1772,8 +1775,8 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="26">
-        <v>41791</v>
+      <c r="R5" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/death_registration.xlsx
+++ b/xforms/xlsforms/death_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>. &lt; today() and . &gt;${earliestDate}</t>
-  </si>
-  <si>
-    <t>2014-06-01</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1607,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1775,9 +1772,7 @@
       <c r="M5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>123</v>
-      </c>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
